--- a/backend/API Calls.xlsx
+++ b/backend/API Calls.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yu Quan\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\study_buddy\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51AB2F60-9AA4-4866-A1A0-A1447B7C67A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5FC76-60D8-47BF-AD90-CDBEED5FA395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C18B1A27-F6D6-4125-8D92-62D274593774}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>find_by_homework_id</t>
   </si>
   <si>
-    <t>get_all_available</t>
-  </si>
-  <si>
     <t>add_homework</t>
   </si>
   <si>
@@ -201,16 +198,6 @@
   </si>
   <si>
     <t>offers sent out?</t>
-  </si>
-  <si>
-    <t>get_all
-get_all_available
-find_by_homework_id
-get_homework_status
-get_homework_student_status
-add_homework
-delete_homework
-update_status</t>
   </si>
   <si>
     <t>update_status_by_liaise_id</t>
@@ -248,9 +235,6 @@
     <t>User:5000 (5)</t>
   </si>
   <si>
-    <t>Homework:5100 (8)</t>
-  </si>
-  <si>
     <t>Liaise:5200 (11)</t>
   </si>
   <si>
@@ -267,6 +251,26 @@
   </si>
   <si>
     <t>Payment:5400 (12)</t>
+  </si>
+  <si>
+    <t>get_all_available
+get_all_available_by_subject
+search_by_title</t>
+  </si>
+  <si>
+    <t>Homework:5100 (10)</t>
+  </si>
+  <si>
+    <t>get_all
+get_all_available
+get_all_available_by_subject
+find_by_homework_id
+get_homework_status
+get_homework_student_status
+search_by_title
+add_homework
+delete_homework
+update_status</t>
   </si>
 </sst>
 </file>
@@ -643,7 +647,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8BAC5B-F317-4D50-9F95-6913ADEF8DD2}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -661,68 +667,68 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="G2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -740,7 +746,7 @@
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -754,7 +760,7 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -772,10 +778,10 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -785,24 +791,24 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
@@ -814,7 +820,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="1"/>
       <c r="F8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -825,16 +831,16 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -845,7 +851,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -860,18 +866,18 @@
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="1"/>
     </row>
@@ -881,7 +887,7 @@
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -896,70 +902,70 @@
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -969,13 +975,13 @@
         <v>12</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>

--- a/backend/API Calls.xlsx
+++ b/backend/API Calls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\study_buddy\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67C5FC76-60D8-47BF-AD90-CDBEED5FA395}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB492A-D3B1-435E-BB82-FD6F41A91DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C18B1A27-F6D6-4125-8D92-62D274593774}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C18B1A27-F6D6-4125-8D92-62D274593774}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -186,13 +186,6 @@
   </si>
   <si>
     <t>get_all
-find_by_username
-find_by_user_id
-create_user
-delete_user</t>
-  </si>
-  <si>
-    <t>get_all
 get_homework_status
 delete_homework</t>
   </si>
@@ -271,6 +264,54 @@
 add_homework
 delete_homework
 update_status</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get_all</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">find_by_username
+find_by_user_id
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>create_user
+delete_user</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -314,7 +355,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -329,6 +370,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,70 +692,70 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="42.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="27.88671875" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="27.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.90625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.90625" customWidth="1"/>
+    <col min="3" max="3" width="42.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="27.90625" customWidth="1"/>
+    <col min="6" max="6" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="27.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:9" ht="174" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>30</v>
@@ -720,7 +764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -728,7 +772,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -737,7 +781,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -754,7 +798,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,7 +813,7 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -786,7 +830,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -811,7 +855,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -826,7 +870,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -845,7 +889,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,7 +904,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -873,7 +917,7 @@
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3" t="s">
@@ -881,7 +925,7 @@
       </c>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -896,7 +940,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,7 +953,7 @@
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3" t="s">
@@ -917,26 +961,26 @@
       </c>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
@@ -953,7 +997,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
@@ -970,7 +1014,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>12</v>
       </c>
@@ -978,10 +1022,10 @@
         <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -991,5 +1035,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/backend/API Calls.xlsx
+++ b/backend/API Calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\study_buddy\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74CB492A-D3B1-435E-BB82-FD6F41A91DF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03518523-5C3E-4E85-A50E-D009415784FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C18B1A27-F6D6-4125-8D92-62D274593774}"/>
   </bookViews>
@@ -194,20 +194,6 @@
   </si>
   <si>
     <t>update_status_by_liaise_id</t>
-  </si>
-  <si>
-    <t>get_payment_status
-get_payout_status
-find_by_payment_id
-search_by_payment_id
-search_payout_by_payment_id
-addPayment
-update_status_by_payment_id
-update_status_by_liaise_id
-delete_payment
-create_checkout_session
-order_success
-order_failure</t>
   </si>
   <si>
     <t>liaise_detail_by_homework_id
@@ -311,6 +297,41 @@
       </rPr>
       <t>create_user
 delete_user</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">get_all_payment
+get_payment_status
+get_payout_status
+find_by_payment_id
+search_by_payment_id
+search_payout_by_payment_id
+addPayment
+update_status_by_payment_id
+update_status_by_liaise_id
+delete_payment
+create_checkout_session
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>order_success
+order_failure</t>
     </r>
   </si>
 </sst>
@@ -691,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B8BAC5B-F317-4D50-9F95-6913ADEF8DD2}">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -711,53 +732,53 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="174" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="188.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="6" t="s">
         <v>30</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -772,7 +793,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -970,12 +991,12 @@
         <v>13</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" s="3"/>
       <c r="I14" s="1"/>
@@ -1025,7 +1046,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>

--- a/backend/API Calls.xlsx
+++ b/backend/API Calls.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\study_buddy\backend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03518523-5C3E-4E85-A50E-D009415784FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171EBFF7-84C6-4D21-A429-74CAC866A15B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{C18B1A27-F6D6-4125-8D92-62D274593774}"/>
   </bookViews>
@@ -252,64 +252,14 @@
 update_status</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>get_all</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">find_by_username
+    <t>get_all
+find_by_username
 find_by_user_id
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>create_user
+create_user
 delete_user</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">get_all_payment
+  </si>
+  <si>
+    <t>get_all_payment
 get_payment_status
 get_payout_status
 find_by_payment_id
@@ -320,19 +270,8 @@
 update_status_by_liaise_id
 delete_payment
 create_checkout_session
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>order_success
+order_success
 order_failure</t>
-    </r>
   </si>
 </sst>
 </file>
@@ -376,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -389,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -713,7 +649,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="53" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -763,10 +699,10 @@
       <c r="B2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -778,10 +714,10 @@
       <c r="G2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="5" t="s">
         <v>32</v>
       </c>
     </row>
